--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE075C8-2E1C-46A4-9174-137AB5C15D6B}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF6D94C-FE7D-4C91-B530-DC95F8569B71}"/>
   <bookViews>
     <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="71">
   <si>
     <t>country</t>
   </si>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>11</v>
@@ -1546,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>11</v>
@@ -1609,8 +1609,8 @@
       <c r="I23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="6">
-        <v>5712345574</v>
+      <c r="J23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>11</v>
@@ -1679,8 +1679,8 @@
       <c r="I24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="6">
-        <v>5712345574</v>
+      <c r="J24" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>11</v>

--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF6D94C-FE7D-4C91-B530-DC95F8569B71}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8920692-42C5-4155-A54B-282DBE92F297}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10755" yWindow="960" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="71">
   <si>
     <t>country</t>
   </si>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,9 +1481,7 @@
       <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
         <v>11</v>
       </c>
@@ -1545,9 +1543,7 @@
       <c r="I22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
         <v>11</v>
       </c>
@@ -1609,9 +1605,7 @@
       <c r="I23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
         <v>11</v>
       </c>
@@ -1679,9 +1673,7 @@
       <c r="I24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
         <v>11</v>
       </c>

--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8920692-42C5-4155-A54B-282DBE92F297}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82BF95D2-10BE-4EF9-A024-80D17578C8DA}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="960" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,79 +1389,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-    </row>
     <row r="21" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>38</v>
@@ -1473,15 +1409,17 @@
         <v>43</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="K21" s="6" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -1520,10 +1458,10 @@
         <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>38</v>
@@ -1535,10 +1473,10 @@
         <v>43</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>9</v>
@@ -1569,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -1585,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
@@ -1597,29 +1535,29 @@
         <v>43</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="9">
-        <v>19801</v>
+        <v>12</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>16</v>
@@ -1631,17 +1569,11 @@
         <v>16</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
@@ -1650,10 +1582,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>38</v>
@@ -1665,10 +1597,10 @@
         <v>43</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>45</v>
@@ -1704,8 +1636,12 @@
       <c r="T24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="U24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
     </row>
@@ -1714,10 +1650,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>38</v>
@@ -1737,9 +1673,7 @@
       <c r="I25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="6">
-        <v>5712345574</v>
-      </c>
+      <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1767,10 +1701,10 @@
       <c r="S25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="T25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -1783,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>38</v>
@@ -1834,10 +1768,10 @@
         <v>49</v>
       </c>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="U26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
     </row>
@@ -1846,10 +1780,10 @@
         <v>39</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>38</v>
@@ -1861,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>45</v>
@@ -1885,7 +1819,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>16</v>
@@ -1897,27 +1831,25 @@
         <v>16</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="6" t="s">
+      <c r="V27" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>38</v>
@@ -1929,10 +1861,10 @@
         <v>43</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>45</v>
@@ -1973,7 +1905,9 @@
       <c r="W28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="X28" s="6"/>
+      <c r="X28" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1983,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>38</v>
@@ -2036,8 +1970,74 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6" t="s">
+      <c r="W29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" s="6"/>
+    </row>
+    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2049,12 +2049,12 @@
     <hyperlink ref="E11" r:id="rId4" xr:uid="{1E1AAC3E-CF20-47D6-A665-93A566D9CB07}"/>
     <hyperlink ref="F2" r:id="rId5" xr:uid="{DC8990D4-B08A-45EF-9770-BDFEDF336BD7}"/>
     <hyperlink ref="F3:F11" r:id="rId6" display="one@mailinator.com" xr:uid="{B15C7178-2DFE-4933-86C0-319CA067249F}"/>
-    <hyperlink ref="E20:E22" r:id="rId7" display="palmone@mailinator.com" xr:uid="{9B235021-225F-406E-BA52-B7D25843F64A}"/>
-    <hyperlink ref="E23:E25" r:id="rId8" display="palmone@mailinator.com" xr:uid="{132EB5EC-D24F-47B9-87B6-725178605DC1}"/>
-    <hyperlink ref="E26:E28" r:id="rId9" display="palmone@mailinator.com" xr:uid="{1C4674A1-B105-459B-9312-F43F2ACF5A8F}"/>
-    <hyperlink ref="E29" r:id="rId10" xr:uid="{9FD0F781-9AFD-4A82-85BB-3BA645011D05}"/>
-    <hyperlink ref="F20" r:id="rId11" xr:uid="{6F0501EC-8A27-4005-9DFB-F335E5641F6B}"/>
-    <hyperlink ref="F21:F29" r:id="rId12" display="one@mailinator.com" xr:uid="{C9A4A809-0F0C-4CD3-B20B-6EDC6181CEFD}"/>
+    <hyperlink ref="E21:E23" r:id="rId7" display="palmone@mailinator.com" xr:uid="{9B235021-225F-406E-BA52-B7D25843F64A}"/>
+    <hyperlink ref="E24:E26" r:id="rId8" display="palmone@mailinator.com" xr:uid="{132EB5EC-D24F-47B9-87B6-725178605DC1}"/>
+    <hyperlink ref="E27:E29" r:id="rId9" display="palmone@mailinator.com" xr:uid="{1C4674A1-B105-459B-9312-F43F2ACF5A8F}"/>
+    <hyperlink ref="E30" r:id="rId10" xr:uid="{9FD0F781-9AFD-4A82-85BB-3BA645011D05}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{6F0501EC-8A27-4005-9DFB-F335E5641F6B}"/>
+    <hyperlink ref="F22:F30" r:id="rId12" display="one@mailinator.com" xr:uid="{C9A4A809-0F0C-4CD3-B20B-6EDC6181CEFD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82BF95D2-10BE-4EF9-A024-80D17578C8DA}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C03854F-9235-400E-91D8-4476115E902A}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="71">
   <si>
     <t>country</t>
   </si>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,6 +1389,80 @@
         <v>58</v>
       </c>
     </row>
+    <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="21" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>39</v>

--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C03854F-9235-400E-91D8-4476115E902A}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDB7329-F966-42C4-8615-DA23D6D1AA66}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="71">
   <si>
     <t>country</t>
   </si>
@@ -262,12 +262,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -298,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -321,6 +327,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,9 +828,7 @@
       <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
@@ -885,9 +890,7 @@
       <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
@@ -949,9 +952,7 @@
       <c r="I5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="6">
-        <v>5712345574</v>
-      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
@@ -985,7 +986,7 @@
       <c r="U5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="W5" s="6"/>
@@ -996,10 +997,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -1011,17 +1012,15 @@
         <v>43</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="6">
-        <v>5712345574</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1052,7 +1051,9 @@
       <c r="T6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -1065,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>38</v>
@@ -1077,17 +1078,15 @@
         <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="6">
-        <v>5712345574</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1115,11 +1114,13 @@
       <c r="S7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
@@ -1131,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
@@ -1143,17 +1144,15 @@
         <v>43</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="6">
-        <v>5712345574</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1182,8 +1181,10 @@
         <v>49</v>
       </c>
       <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="U8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="W8" s="6"/>
@@ -1197,7 +1198,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>38</v>
@@ -1209,17 +1210,15 @@
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="6">
-        <v>5712345574</v>
-      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>16</v>
@@ -1245,17 +1244,15 @@
         <v>16</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1265,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>38</v>
@@ -1301,7 +1298,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>16</v>
@@ -1313,14 +1310,14 @@
         <v>16</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="V10" s="6"/>
-      <c r="W10" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
     <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -1331,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>38</v>
@@ -1367,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>16</v>
@@ -1379,13 +1376,213 @@
         <v>16</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="V11" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="W11" s="6"/>
-      <c r="X11" s="6" t="s">
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1527,610 +1724,24 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-    </row>
-    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-    </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-    </row>
-    <row r="25" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-    </row>
-    <row r="26" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-    </row>
-    <row r="27" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-    </row>
-    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X28" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X29" s="6"/>
-    </row>
-    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="E5:E7" r:id="rId2" display="palmone@mailinator.com" xr:uid="{93D5C9E2-CDDE-46B5-871D-A4F4E7F1C837}"/>
-    <hyperlink ref="E8:E10" r:id="rId3" display="palmone@mailinator.com" xr:uid="{30CCCA33-D6AE-426A-A809-9A4D8BD3BFDA}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{1E1AAC3E-CF20-47D6-A665-93A566D9CB07}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{DC8990D4-B08A-45EF-9770-BDFEDF336BD7}"/>
-    <hyperlink ref="F3:F11" r:id="rId6" display="one@mailinator.com" xr:uid="{B15C7178-2DFE-4933-86C0-319CA067249F}"/>
-    <hyperlink ref="E21:E23" r:id="rId7" display="palmone@mailinator.com" xr:uid="{9B235021-225F-406E-BA52-B7D25843F64A}"/>
-    <hyperlink ref="E24:E26" r:id="rId8" display="palmone@mailinator.com" xr:uid="{132EB5EC-D24F-47B9-87B6-725178605DC1}"/>
-    <hyperlink ref="E27:E29" r:id="rId9" display="palmone@mailinator.com" xr:uid="{1C4674A1-B105-459B-9312-F43F2ACF5A8F}"/>
-    <hyperlink ref="E30" r:id="rId10" xr:uid="{9FD0F781-9AFD-4A82-85BB-3BA645011D05}"/>
-    <hyperlink ref="F21" r:id="rId11" xr:uid="{6F0501EC-8A27-4005-9DFB-F335E5641F6B}"/>
-    <hyperlink ref="F22:F30" r:id="rId12" display="one@mailinator.com" xr:uid="{C9A4A809-0F0C-4CD3-B20B-6EDC6181CEFD}"/>
+    <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{BF197DE6-54A2-429F-8ED2-3F12E4335891}"/>
+    <hyperlink ref="E5:E10" r:id="rId2" display="palmone@mailinator.com" xr:uid="{EDE27E83-739A-4C37-A063-5A351DAEC916}"/>
+    <hyperlink ref="E11:E13" r:id="rId3" display="palmone@mailinator.com" xr:uid="{FAF59619-C03A-498C-AC25-72A7ED9A0361}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{A48B5987-DE09-46A7-B9B6-BA45F2F97BB8}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{DC34B745-B479-44A8-BDE2-BB42E818F654}"/>
+    <hyperlink ref="F3:F14" r:id="rId6" display="one@mailinator.com" xr:uid="{45A36358-0F34-4795-B1F0-65DB1DF82BA8}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{86CED3EE-C98B-473A-8AFA-B89CA3A48047}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{8E39173A-91FC-4A5F-A027-5512305C037E}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{5B4AB8A5-356F-4A36-827D-E28D07EC40D1}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{612D13C4-E296-4707-A290-6DF3DA047CD3}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{F57A64FF-AAA2-4688-AD25-EEB67F9F53E7}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{FFAF3580-6A85-4862-A73A-6A4F5B4CB700}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{2E40C3BF-4CDD-4D12-AB61-30B0622C71F3}"/>
+    <hyperlink ref="F21" r:id="rId14" xr:uid="{270BB1B8-862F-4AC7-A5BF-EDE4F5EBBB9B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDB7329-F966-42C4-8615-DA23D6D1AA66}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB02BC2-0ADA-45EF-8730-CB2E7762461A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB02BC2-0ADA-45EF-8730-CB2E7762461A}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FC9B6C1-F51D-48CC-9756-8879459E2244}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="71">
   <si>
     <t>country</t>
   </si>
@@ -631,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,6 +1724,68 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
     </row>
+    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{BF197DE6-54A2-429F-8ED2-3F12E4335891}"/>
@@ -1740,8 +1802,10 @@
     <hyperlink ref="F8" r:id="rId12" xr:uid="{FFAF3580-6A85-4862-A73A-6A4F5B4CB700}"/>
     <hyperlink ref="E21" r:id="rId13" xr:uid="{2E40C3BF-4CDD-4D12-AB61-30B0622C71F3}"/>
     <hyperlink ref="F21" r:id="rId14" xr:uid="{270BB1B8-862F-4AC7-A5BF-EDE4F5EBBB9B}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{5CCA7155-1FE8-4C8C-9C4E-00FA04CDAA51}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{88B6A104-7193-4390-8239-D75B01698A59}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="150" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FC9B6C1-F51D-48CC-9756-8879459E2244}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31635" yWindow="1185" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FC9B6C1-F51D-48CC-9756-8879459E2244}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B348325-9D3F-4223-90D7-170393DEEAAA}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="1185" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18870" yWindow="960" windowWidth="33720" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="99">
   <si>
     <t>country</t>
   </si>
@@ -233,13 +233,97 @@
   </si>
   <si>
     <t>eduten</t>
+  </si>
+  <si>
+    <t>dzmmjswlhuairrwsrl</t>
+  </si>
+  <si>
+    <t>eahuxpcoqyjwkwqaotks</t>
+  </si>
+  <si>
+    <t>yjwt5bvcwkfhep@mailinator.com</t>
+  </si>
+  <si>
+    <t>sophia.johnson@mailinator.com</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>10003-5678</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>845 Broadway Avenue, Suite 12A</t>
+  </si>
+  <si>
+    <t>10003-5679</t>
+  </si>
+  <si>
+    <t>846 Broadway Avenue, Suite 12A</t>
+  </si>
+  <si>
+    <t>10003-5680</t>
+  </si>
+  <si>
+    <t>847 Broadway Avenue, Suite 12A</t>
+  </si>
+  <si>
+    <t>alexander.thompson@mailinator.com</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>303-555-8923</t>
+  </si>
+  <si>
+    <t>1562 Pine Ridge Drive, Apartment 304</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>719-555-4567</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>2847 Maple Avenue, Unit 12B</t>
+  </si>
+  <si>
+    <t>sarah.martinez@mailinator.com</t>
+  </si>
+  <si>
+    <t>719-555-4568</t>
+  </si>
+  <si>
+    <t>2848 Maple Avenue, Unit 12B</t>
+  </si>
+  <si>
+    <t>719-555-4569</t>
+  </si>
+  <si>
+    <t>2849 Maple Avenue, Unit 12B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +341,24 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -328,6 +430,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,22 +754,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="4" customWidth="1"/>
     <col min="13" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -1623,7 +1749,7 @@
       <c r="L20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -1667,44 +1793,44 @@
       <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="C21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="15">
+        <v>38252</v>
+      </c>
+      <c r="J21" s="16">
+        <v>5712345569</v>
+      </c>
+      <c r="K21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>15</v>
+      <c r="L21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>16</v>
@@ -1729,44 +1855,46 @@
         <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="15">
+        <v>38253</v>
+      </c>
+      <c r="J22" s="16">
+        <v>5712345570</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>15</v>
+      <c r="L22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>16</v>
@@ -1786,7 +1914,472 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
+    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="15">
+        <v>38254</v>
+      </c>
+      <c r="J23" s="16">
+        <v>5712345571</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="15">
+        <v>38798</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="19">
+        <v>80203</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="15">
+        <v>38798</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="19">
+        <v>80203</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="15">
+        <v>38798</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="19">
+        <v>80203</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="15">
+        <v>38607</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="19">
+        <v>80918</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="15">
+        <v>38608</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="19">
+        <v>80919</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="15">
+        <v>38609</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="19">
+        <v>80920</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{BF197DE6-54A2-429F-8ED2-3F12E4335891}"/>
     <hyperlink ref="E5:E10" r:id="rId2" display="palmone@mailinator.com" xr:uid="{EDE27E83-739A-4C37-A063-5A351DAEC916}"/>
@@ -1800,12 +2393,28 @@
     <hyperlink ref="F7" r:id="rId10" xr:uid="{612D13C4-E296-4707-A290-6DF3DA047CD3}"/>
     <hyperlink ref="E8" r:id="rId11" xr:uid="{F57A64FF-AAA2-4688-AD25-EEB67F9F53E7}"/>
     <hyperlink ref="F8" r:id="rId12" xr:uid="{FFAF3580-6A85-4862-A73A-6A4F5B4CB700}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{2E40C3BF-4CDD-4D12-AB61-30B0622C71F3}"/>
-    <hyperlink ref="F21" r:id="rId14" xr:uid="{270BB1B8-862F-4AC7-A5BF-EDE4F5EBBB9B}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{5CCA7155-1FE8-4C8C-9C4E-00FA04CDAA51}"/>
-    <hyperlink ref="F22" r:id="rId16" xr:uid="{88B6A104-7193-4390-8239-D75B01698A59}"/>
+    <hyperlink ref="E21:E23" r:id="rId13" display="palmone@mailinator.com" xr:uid="{45BDD50C-A220-43F1-B67D-F9C98151E2D0}"/>
+    <hyperlink ref="F22:F29" r:id="rId14" display="one@mailinator.com" xr:uid="{9EBEBAF7-B4AF-4639-96C8-177C265DBFCE}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{DD763D9B-C701-402F-BF4F-9C3EE63542C9}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{09EE74F0-763F-429E-B06F-A6AE4394C76C}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{29719065-3E2A-41B8-9412-6599320B686B}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{4FBE6471-596B-4073-8214-EA950F3EE5A0}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{31339E10-B85E-4F5C-8972-C4A74F33F8DB}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{4A178630-B901-4068-9D43-8967FCCBDD9A}"/>
+    <hyperlink ref="E27" r:id="rId21" xr:uid="{A57C9603-86D0-4470-8CF4-B14035A6D170}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{C81C0A4A-729A-4072-AD2F-881F001C0D42}"/>
+    <hyperlink ref="E29" r:id="rId23" xr:uid="{FE968FE0-CCA1-449B-8F92-0CCE429D943D}"/>
+    <hyperlink ref="F21" r:id="rId24" xr:uid="{6B9A1740-0E19-4856-B5E9-18CE1A353A3D}"/>
+    <hyperlink ref="F22" r:id="rId25" xr:uid="{22327321-C640-41BA-8C7E-43F987A8422D}"/>
+    <hyperlink ref="F23" r:id="rId26" xr:uid="{5ACFFEA4-B37B-4C0A-9FAF-9DD6523551DE}"/>
+    <hyperlink ref="F24" r:id="rId27" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{71C3D993-4170-4655-BBAD-7EB0B88D5E2B}"/>
+    <hyperlink ref="F25" r:id="rId28" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{69BB4593-84CD-4B41-B576-ABD97888AA5D}"/>
+    <hyperlink ref="F26" r:id="rId29" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{B395B4FD-47CE-4996-9808-F040427F3A48}"/>
+    <hyperlink ref="F27" r:id="rId30" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{F53A7B11-40CA-4A4D-AB73-257CBE4528DD}"/>
+    <hyperlink ref="F28" r:id="rId31" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{88A17BF0-766C-463D-8F6D-F80A80B48EFD}"/>
+    <hyperlink ref="F29" r:id="rId32" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{EB6970CC-038E-4CAA-B72A-DAD92B934177}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B348325-9D3F-4223-90D7-170393DEEAAA}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2195EE-C4B2-4201-BC06-A525FB5316D5}"/>
   <bookViews>
-    <workbookView xWindow="18870" yWindow="960" windowWidth="33720" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="495" windowWidth="27930" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="95">
   <si>
     <t>country</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Thompson</t>
   </si>
   <si>
-    <t>303-555-8923</t>
-  </si>
-  <si>
     <t>1562 Pine Ridge Drive, Apartment 304</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>Martinez</t>
   </si>
   <si>
-    <t>719-555-4567</t>
-  </si>
-  <si>
     <t>Colorado Springs</t>
   </si>
   <si>
@@ -307,13 +301,7 @@
     <t>sarah.martinez@mailinator.com</t>
   </si>
   <si>
-    <t>719-555-4568</t>
-  </si>
-  <si>
     <t>2848 Maple Avenue, Unit 12B</t>
-  </si>
-  <si>
-    <t>719-555-4569</t>
   </si>
   <si>
     <t>2849 Maple Avenue, Unit 12B</t>
@@ -756,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,9 +1994,7 @@
       <c r="I24" s="15">
         <v>38798</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="J24" s="14"/>
       <c r="K24" s="14" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2008,7 @@
         <v>14</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>16</v>
@@ -2074,9 +2060,7 @@
       <c r="I25" s="15">
         <v>38798</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
         <v>11</v>
       </c>
@@ -2090,7 +2074,7 @@
         <v>14</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>16</v>
@@ -2140,9 +2124,7 @@
       <c r="I26" s="15">
         <v>38798</v>
       </c>
-      <c r="J26" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="J26" s="14"/>
       <c r="K26" s="14" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>16</v>
@@ -2195,20 +2177,18 @@
         <v>73</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="I27" s="15">
         <v>38607</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="J27" s="14"/>
       <c r="K27" s="14" t="s">
         <v>11</v>
       </c>
@@ -2219,10 +2199,10 @@
         <v>80918</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>16</v>
@@ -2263,20 +2243,18 @@
         <v>73</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="I28" s="15">
         <v>38608</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>95</v>
-      </c>
+      <c r="J28" s="14"/>
       <c r="K28" s="14" t="s">
         <v>11</v>
       </c>
@@ -2287,10 +2265,10 @@
         <v>80919</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>16</v>
@@ -2329,20 +2307,18 @@
         <v>73</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="I29" s="15">
         <v>38609</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="J29" s="14"/>
       <c r="K29" s="14" t="s">
         <v>11</v>
       </c>
@@ -2353,10 +2329,10 @@
         <v>80920</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>16</v>

--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2195EE-C4B2-4201-BC06-A525FB5316D5}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8658F6E-C807-4979-B17C-EB4B38808C4C}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="495" windowWidth="27930" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27720" yWindow="0" windowWidth="24855" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="83">
   <si>
     <t>country</t>
   </si>
@@ -199,12 +199,6 @@
     <t>Educator data (if any)</t>
   </si>
   <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>1249 Market Street, Apt 7B</t>
-  </si>
-  <si>
     <t>Close/deactivate/cancel my College Board account</t>
   </si>
   <si>
@@ -226,15 +220,6 @@
     <t>eduseven</t>
   </si>
   <si>
-    <t>edueight</t>
-  </si>
-  <si>
-    <t>edunine</t>
-  </si>
-  <si>
-    <t>eduten</t>
-  </si>
-  <si>
     <t>dzmmjswlhuairrwsrl</t>
   </si>
   <si>
@@ -253,37 +238,16 @@
     <t>Johnson</t>
   </si>
   <si>
-    <t>10003-5678</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
     <t>845 Broadway Avenue, Suite 12A</t>
   </si>
   <si>
-    <t>10003-5679</t>
-  </si>
-  <si>
     <t>846 Broadway Avenue, Suite 12A</t>
   </si>
   <si>
-    <t>10003-5680</t>
-  </si>
-  <si>
     <t>847 Broadway Avenue, Suite 12A</t>
-  </si>
-  <si>
-    <t>alexander.thompson@mailinator.com</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>1562 Pine Ridge Drive, Apartment 304</t>
   </si>
   <si>
     <t>Sarah</t>
@@ -742,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +822,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
@@ -1312,7 +1276,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>38</v>
@@ -1324,10 +1288,10 @@
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>45</v>
@@ -1376,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>38</v>
@@ -1388,10 +1352,10 @@
         <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>45</v>
@@ -1442,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>38</v>
@@ -1454,10 +1418,10 @@
         <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>45</v>
@@ -1505,58 +1469,56 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="15">
+        <v>38607</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="19">
+        <v>80918</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1575,44 +1537,42 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="C13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="15">
+        <v>38608</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>60</v>
+      <c r="L13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="19">
+        <v>80919</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>16</v>
@@ -1624,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -1641,44 +1601,42 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="6">
-        <v>5712345574</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="C14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="15">
+        <v>38609</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="9">
-        <v>19801</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>60</v>
+      <c r="L14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="19">
+        <v>80920</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>16</v>
@@ -1690,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1782,43 +1740,41 @@
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="I21" s="15">
         <v>38252</v>
       </c>
-      <c r="J21" s="16">
-        <v>5712345569</v>
-      </c>
+      <c r="J21" s="16"/>
       <c r="K21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="M21" s="19">
+        <v>10003</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>16</v>
@@ -1846,43 +1802,41 @@
         <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="I22" s="15">
-        <v>38253</v>
-      </c>
-      <c r="J22" s="16">
-        <v>5712345570</v>
-      </c>
+        <v>38252</v>
+      </c>
+      <c r="J22" s="16"/>
       <c r="K22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="M22" s="19">
+        <v>10003</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>16</v>
@@ -1910,43 +1864,41 @@
         <v>16</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="I23" s="15">
-        <v>38254</v>
-      </c>
-      <c r="J23" s="16">
-        <v>5712345571</v>
-      </c>
+        <v>38252</v>
+      </c>
+      <c r="J23" s="16"/>
       <c r="K23" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="M23" s="19">
+        <v>10003</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>16</v>
@@ -1966,431 +1918,36 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="15">
-        <v>38798</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="19">
-        <v>80203</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-    </row>
-    <row r="25" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="15">
-        <v>38798</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="19">
-        <v>80203</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-    </row>
-    <row r="26" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="15">
-        <v>38798</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="19">
-        <v>80203</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-    </row>
-    <row r="27" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="15">
-        <v>38607</v>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="19">
-        <v>80918</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="15">
-        <v>38608</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="19">
-        <v>80919</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X28" s="6"/>
-    </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="15">
-        <v>38609</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="19">
-        <v>80920</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{BF197DE6-54A2-429F-8ED2-3F12E4335891}"/>
     <hyperlink ref="E5:E10" r:id="rId2" display="palmone@mailinator.com" xr:uid="{EDE27E83-739A-4C37-A063-5A351DAEC916}"/>
-    <hyperlink ref="E11:E13" r:id="rId3" display="palmone@mailinator.com" xr:uid="{FAF59619-C03A-498C-AC25-72A7ED9A0361}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{A48B5987-DE09-46A7-B9B6-BA45F2F97BB8}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{DC34B745-B479-44A8-BDE2-BB42E818F654}"/>
-    <hyperlink ref="F3:F14" r:id="rId6" display="one@mailinator.com" xr:uid="{45A36358-0F34-4795-B1F0-65DB1DF82BA8}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{86CED3EE-C98B-473A-8AFA-B89CA3A48047}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{8E39173A-91FC-4A5F-A027-5512305C037E}"/>
-    <hyperlink ref="E7" r:id="rId9" xr:uid="{5B4AB8A5-356F-4A36-827D-E28D07EC40D1}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{612D13C4-E296-4707-A290-6DF3DA047CD3}"/>
-    <hyperlink ref="E8" r:id="rId11" xr:uid="{F57A64FF-AAA2-4688-AD25-EEB67F9F53E7}"/>
-    <hyperlink ref="F8" r:id="rId12" xr:uid="{FFAF3580-6A85-4862-A73A-6A4F5B4CB700}"/>
-    <hyperlink ref="E21:E23" r:id="rId13" display="palmone@mailinator.com" xr:uid="{45BDD50C-A220-43F1-B67D-F9C98151E2D0}"/>
-    <hyperlink ref="F22:F29" r:id="rId14" display="one@mailinator.com" xr:uid="{9EBEBAF7-B4AF-4639-96C8-177C265DBFCE}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{DD763D9B-C701-402F-BF4F-9C3EE63542C9}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{09EE74F0-763F-429E-B06F-A6AE4394C76C}"/>
-    <hyperlink ref="E23" r:id="rId17" xr:uid="{29719065-3E2A-41B8-9412-6599320B686B}"/>
-    <hyperlink ref="E24" r:id="rId18" xr:uid="{4FBE6471-596B-4073-8214-EA950F3EE5A0}"/>
-    <hyperlink ref="E25" r:id="rId19" xr:uid="{31339E10-B85E-4F5C-8972-C4A74F33F8DB}"/>
-    <hyperlink ref="E26" r:id="rId20" xr:uid="{4A178630-B901-4068-9D43-8967FCCBDD9A}"/>
-    <hyperlink ref="E27" r:id="rId21" xr:uid="{A57C9603-86D0-4470-8CF4-B14035A6D170}"/>
-    <hyperlink ref="E28" r:id="rId22" xr:uid="{C81C0A4A-729A-4072-AD2F-881F001C0D42}"/>
-    <hyperlink ref="E29" r:id="rId23" xr:uid="{FE968FE0-CCA1-449B-8F92-0CCE429D943D}"/>
-    <hyperlink ref="F21" r:id="rId24" xr:uid="{6B9A1740-0E19-4856-B5E9-18CE1A353A3D}"/>
-    <hyperlink ref="F22" r:id="rId25" xr:uid="{22327321-C640-41BA-8C7E-43F987A8422D}"/>
-    <hyperlink ref="F23" r:id="rId26" xr:uid="{5ACFFEA4-B37B-4C0A-9FAF-9DD6523551DE}"/>
-    <hyperlink ref="F24" r:id="rId27" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{71C3D993-4170-4655-BBAD-7EB0B88D5E2B}"/>
-    <hyperlink ref="F25" r:id="rId28" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{69BB4593-84CD-4B41-B576-ABD97888AA5D}"/>
-    <hyperlink ref="F26" r:id="rId29" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{B395B4FD-47CE-4996-9808-F040427F3A48}"/>
-    <hyperlink ref="F27" r:id="rId30" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{F53A7B11-40CA-4A4D-AB73-257CBE4528DD}"/>
-    <hyperlink ref="F28" r:id="rId31" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{88A17BF0-766C-463D-8F6D-F80A80B48EFD}"/>
-    <hyperlink ref="F29" r:id="rId32" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{EB6970CC-038E-4CAA-B72A-DAD92B934177}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{FAF59619-C03A-498C-AC25-72A7ED9A0361}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{DC34B745-B479-44A8-BDE2-BB42E818F654}"/>
+    <hyperlink ref="F3:F14" r:id="rId5" display="one@mailinator.com" xr:uid="{45A36358-0F34-4795-B1F0-65DB1DF82BA8}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{86CED3EE-C98B-473A-8AFA-B89CA3A48047}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{8E39173A-91FC-4A5F-A027-5512305C037E}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{5B4AB8A5-356F-4A36-827D-E28D07EC40D1}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{612D13C4-E296-4707-A290-6DF3DA047CD3}"/>
+    <hyperlink ref="E8" r:id="rId10" xr:uid="{F57A64FF-AAA2-4688-AD25-EEB67F9F53E7}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{FFAF3580-6A85-4862-A73A-6A4F5B4CB700}"/>
+    <hyperlink ref="E21:E23" r:id="rId12" display="palmone@mailinator.com" xr:uid="{45BDD50C-A220-43F1-B67D-F9C98151E2D0}"/>
+    <hyperlink ref="F22:F26" r:id="rId13" display="one@mailinator.com" xr:uid="{9EBEBAF7-B4AF-4639-96C8-177C265DBFCE}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{DD763D9B-C701-402F-BF4F-9C3EE63542C9}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{09EE74F0-763F-429E-B06F-A6AE4394C76C}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{29719065-3E2A-41B8-9412-6599320B686B}"/>
+    <hyperlink ref="E12" r:id="rId17" xr:uid="{A57C9603-86D0-4470-8CF4-B14035A6D170}"/>
+    <hyperlink ref="E13" r:id="rId18" xr:uid="{C81C0A4A-729A-4072-AD2F-881F001C0D42}"/>
+    <hyperlink ref="E14" r:id="rId19" xr:uid="{FE968FE0-CCA1-449B-8F92-0CCE429D943D}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{6B9A1740-0E19-4856-B5E9-18CE1A353A3D}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{22327321-C640-41BA-8C7E-43F987A8422D}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{5ACFFEA4-B37B-4C0A-9FAF-9DD6523551DE}"/>
+    <hyperlink ref="F12" r:id="rId23" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{F53A7B11-40CA-4A4D-AB73-257CBE4528DD}"/>
+    <hyperlink ref="F13" r:id="rId24" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{88A17BF0-766C-463D-8F6D-F80A80B48EFD}"/>
+    <hyperlink ref="F14" r:id="rId25" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{EB6970CC-038E-4CAA-B72A-DAD92B934177}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8658F6E-C807-4979-B17C-EB4B38808C4C}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61095EF4-6C7C-4182-AB40-C1251DE796ED}"/>
   <bookViews>
-    <workbookView xWindow="27720" yWindow="0" windowWidth="24855" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="975" windowWidth="31650" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="95">
   <si>
     <t>country</t>
   </si>
@@ -229,27 +229,9 @@
     <t>yjwt5bvcwkfhep@mailinator.com</t>
   </si>
   <si>
-    <t>sophia.johnson@mailinator.com</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>845 Broadway Avenue, Suite 12A</t>
-  </si>
-  <si>
-    <t>846 Broadway Avenue, Suite 12A</t>
-  </si>
-  <si>
-    <t>847 Broadway Avenue, Suite 12A</t>
-  </si>
-  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -269,13 +251,67 @@
   </si>
   <si>
     <t>2849 Maple Avenue, Unit 12B</t>
+  </si>
+  <si>
+    <t>michael.chen@mailinator.com</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Fort Collins</t>
+  </si>
+  <si>
+    <t>4521 Oakwood Boulevard</t>
+  </si>
+  <si>
+    <t>emily.johnson@mailinator.com</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>789 Cherry Lane, Suite 5A</t>
+  </si>
+  <si>
+    <t>daniel.wilson@mailinator.com</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Pueblo</t>
+  </si>
+  <si>
+    <t>3456 Mountain View Circle, Building C</t>
+  </si>
+  <si>
+    <t>1/28/2007</t>
+  </si>
+  <si>
+    <t>11/3/2004</t>
+  </si>
+  <si>
+    <t>7/15/2005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,13 +340,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -377,31 +406,32 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +860,7 @@
       <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -894,7 +924,7 @@
       <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -956,7 +986,7 @@
       <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1018,7 +1048,7 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1037,7 +1067,7 @@
       <c r="L5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>19801</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -1064,7 +1094,7 @@
       <c r="U5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="9" t="s">
         <v>58</v>
       </c>
       <c r="W5" s="6"/>
@@ -1086,7 +1116,7 @@
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1105,7 +1135,7 @@
       <c r="L6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>19801</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1152,7 +1182,7 @@
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1171,7 +1201,7 @@
       <c r="L7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>19801</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -1196,7 +1226,7 @@
         <v>50</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="W7" s="6"/>
@@ -1218,7 +1248,7 @@
       <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1237,7 +1267,7 @@
       <c r="L8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>19801</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -1262,7 +1292,7 @@
       <c r="U8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="W8" s="6"/>
@@ -1284,7 +1314,7 @@
       <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1303,7 +1333,7 @@
       <c r="L9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>19801</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -1348,7 +1378,7 @@
       <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1369,7 +1399,7 @@
       <c r="L10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>19801</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -1414,7 +1444,7 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1435,7 +1465,7 @@
       <c r="L11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>19801</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -1471,42 +1501,42 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="F12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="12">
         <v>38607</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="13">
         <v>80918</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>79</v>
+      <c r="N12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>16</v>
@@ -1537,42 +1567,42 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="F13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="12">
         <v>38608</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="13">
         <v>80919</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>81</v>
+      <c r="N13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>16</v>
@@ -1601,42 +1631,42 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="12">
+        <v>38609</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="13">
+        <v>80920</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="15">
-        <v>38609</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="19">
-        <v>80920</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>16</v>
@@ -1659,19 +1689,19 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1683,240 +1713,257 @@
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="18">
+        <v>80525</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="15">
-        <v>38252</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14" t="s">
+      <c r="I22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="19">
-        <v>10003</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="L22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="18">
+        <v>80302</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="15">
-        <v>38252</v>
-      </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="14" t="s">
+      <c r="F23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="19">
-        <v>10003</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-    </row>
-    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="15">
-        <v>38252</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="19">
-        <v>10003</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="L23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="18">
+        <v>81001</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
+      <c r="X23" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1924,30 +1971,18 @@
     <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{BF197DE6-54A2-429F-8ED2-3F12E4335891}"/>
     <hyperlink ref="E5:E10" r:id="rId2" display="palmone@mailinator.com" xr:uid="{EDE27E83-739A-4C37-A063-5A351DAEC916}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{FAF59619-C03A-498C-AC25-72A7ED9A0361}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{DC34B745-B479-44A8-BDE2-BB42E818F654}"/>
-    <hyperlink ref="F3:F14" r:id="rId5" display="one@mailinator.com" xr:uid="{45A36358-0F34-4795-B1F0-65DB1DF82BA8}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{86CED3EE-C98B-473A-8AFA-B89CA3A48047}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{8E39173A-91FC-4A5F-A027-5512305C037E}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{5B4AB8A5-356F-4A36-827D-E28D07EC40D1}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{612D13C4-E296-4707-A290-6DF3DA047CD3}"/>
-    <hyperlink ref="E8" r:id="rId10" xr:uid="{F57A64FF-AAA2-4688-AD25-EEB67F9F53E7}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{FFAF3580-6A85-4862-A73A-6A4F5B4CB700}"/>
-    <hyperlink ref="E21:E23" r:id="rId12" display="palmone@mailinator.com" xr:uid="{45BDD50C-A220-43F1-B67D-F9C98151E2D0}"/>
-    <hyperlink ref="F22:F26" r:id="rId13" display="one@mailinator.com" xr:uid="{9EBEBAF7-B4AF-4639-96C8-177C265DBFCE}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{DD763D9B-C701-402F-BF4F-9C3EE63542C9}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{09EE74F0-763F-429E-B06F-A6AE4394C76C}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{29719065-3E2A-41B8-9412-6599320B686B}"/>
-    <hyperlink ref="E12" r:id="rId17" xr:uid="{A57C9603-86D0-4470-8CF4-B14035A6D170}"/>
-    <hyperlink ref="E13" r:id="rId18" xr:uid="{C81C0A4A-729A-4072-AD2F-881F001C0D42}"/>
-    <hyperlink ref="E14" r:id="rId19" xr:uid="{FE968FE0-CCA1-449B-8F92-0CCE429D943D}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{6B9A1740-0E19-4856-B5E9-18CE1A353A3D}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{22327321-C640-41BA-8C7E-43F987A8422D}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{5ACFFEA4-B37B-4C0A-9FAF-9DD6523551DE}"/>
-    <hyperlink ref="F12" r:id="rId23" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{F53A7B11-40CA-4A4D-AB73-257CBE4528DD}"/>
-    <hyperlink ref="F13" r:id="rId24" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{88A17BF0-766C-463D-8F6D-F80A80B48EFD}"/>
-    <hyperlink ref="F14" r:id="rId25" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{EB6970CC-038E-4CAA-B72A-DAD92B934177}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{86CED3EE-C98B-473A-8AFA-B89CA3A48047}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{5B4AB8A5-356F-4A36-827D-E28D07EC40D1}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{F57A64FF-AAA2-4688-AD25-EEB67F9F53E7}"/>
+    <hyperlink ref="E21:E23" r:id="rId7" display="palmone@mailinator.com" xr:uid="{45BDD50C-A220-43F1-B67D-F9C98151E2D0}"/>
+    <hyperlink ref="E21" r:id="rId8" xr:uid="{DD763D9B-C701-402F-BF4F-9C3EE63542C9}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{09EE74F0-763F-429E-B06F-A6AE4394C76C}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{29719065-3E2A-41B8-9412-6599320B686B}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{A57C9603-86D0-4470-8CF4-B14035A6D170}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{C81C0A4A-729A-4072-AD2F-881F001C0D42}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{FE968FE0-CCA1-449B-8F92-0CCE429D943D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>